--- a/notes/calcul_notes.xlsx
+++ b/notes/calcul_notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">NOM</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Partiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rang</t>
   </si>
   <si>
     <t xml:space="preserve">Moyenne</t>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">Notes &lt; 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes = 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nb Etd</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">% Notes &lt; 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Notes = 0</t>
   </si>
 </sst>
 </file>
@@ -487,17 +496,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ71"/>
+  <dimension ref="A1:AMJ73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="2" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.96"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,6 +549,9 @@
       </c>
       <c r="M1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
@@ -572,6 +585,10 @@
       <c r="M2" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">RANK($D2, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
@@ -601,6 +618,10 @@
       <c r="M3" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">RANK($D3, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -630,6 +651,10 @@
       <c r="M4" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">RANK($D4, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
@@ -659,6 +684,10 @@
       <c r="M5" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">RANK($D5, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
@@ -688,6 +717,10 @@
       <c r="M6" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">RANK($D6, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
@@ -717,6 +750,10 @@
       <c r="M7" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">RANK($D7, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -746,6 +783,10 @@
       <c r="M8" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">RANK($D8, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
@@ -775,6 +816,10 @@
       <c r="M9" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">RANK($D9, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
@@ -804,6 +849,10 @@
       <c r="M10" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">RANK($D10, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
@@ -833,6 +882,10 @@
       <c r="M11" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">RANK($D11, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -862,6 +915,10 @@
       <c r="M12" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">RANK($D12, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -891,6 +948,10 @@
       <c r="M13" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">RANK($D13, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -920,6 +981,10 @@
       <c r="M14" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">RANK($D14, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
@@ -949,6 +1014,10 @@
       <c r="M15" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">RANK($D15, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
@@ -978,6 +1047,10 @@
       <c r="M16" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">RANK($D16, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -1007,6 +1080,10 @@
       <c r="M17" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">RANK($D17, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -1036,6 +1113,10 @@
       <c r="M18" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">RANK($D18, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -1065,6 +1146,10 @@
       <c r="M19" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">RANK($D19, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -1094,6 +1179,10 @@
       <c r="M20" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">RANK($D20, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
@@ -1123,6 +1212,10 @@
       <c r="M21" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">RANK($D21, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
@@ -1152,6 +1245,10 @@
       <c r="M22" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">RANK($D22, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
@@ -1181,6 +1278,10 @@
       <c r="M23" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">RANK($D23, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
@@ -1210,6 +1311,10 @@
       <c r="M24" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">RANK($D24, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
@@ -1239,6 +1344,10 @@
       <c r="M25" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">RANK($D25, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
@@ -1268,6 +1377,10 @@
       <c r="M26" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">RANK($D26, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -1297,6 +1410,10 @@
       <c r="M27" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">RANK($D27, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
@@ -1326,6 +1443,10 @@
       <c r="M28" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">RANK($D28, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
@@ -1355,6 +1476,10 @@
       <c r="M29" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">RANK($D29, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
@@ -1384,6 +1509,10 @@
       <c r="M30" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">RANK($D30, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
@@ -1413,6 +1542,10 @@
       <c r="M31" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">RANK($D31, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -1442,6 +1575,10 @@
       <c r="M32" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">RANK($D32, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -1471,6 +1608,10 @@
       <c r="M33" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">RANK($D33, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
@@ -1500,6 +1641,10 @@
       <c r="M34" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">RANK($D34, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
@@ -1529,6 +1674,10 @@
       <c r="M35" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">RANK($D35, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
@@ -1558,6 +1707,10 @@
       <c r="M36" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">RANK($D36, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
@@ -1587,6 +1740,10 @@
       <c r="M37" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">RANK($D37, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -1616,6 +1773,10 @@
       <c r="M38" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">RANK($D38, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
@@ -1645,6 +1806,10 @@
       <c r="M39" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">RANK($D39, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
@@ -1674,6 +1839,10 @@
       <c r="M40" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">RANK($D40, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
@@ -1703,6 +1872,10 @@
       <c r="M41" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">RANK($D41, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
@@ -1732,6 +1905,10 @@
       <c r="M42" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">RANK($D42, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
@@ -1761,6 +1938,10 @@
       <c r="M43" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">RANK($D43, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
@@ -1790,6 +1971,10 @@
       <c r="M44" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">RANK($D44, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
@@ -1819,6 +2004,10 @@
       <c r="M45" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">RANK($D45, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
@@ -1848,6 +2037,10 @@
       <c r="M46" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N46" s="0" t="n">
+        <f aca="false">RANK($D46, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
@@ -1877,6 +2070,10 @@
       <c r="M47" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">RANK($D47, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
@@ -1906,6 +2103,10 @@
       <c r="M48" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">RANK($D48, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
@@ -1935,6 +2136,10 @@
       <c r="M49" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N49" s="0" t="n">
+        <f aca="false">RANK($D49, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
@@ -1964,6 +2169,10 @@
       <c r="M50" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N50" s="0" t="n">
+        <f aca="false">RANK($D50, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
@@ -1993,6 +2202,10 @@
       <c r="M51" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N51" s="0" t="n">
+        <f aca="false">RANK($D51, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
@@ -2022,6 +2235,10 @@
       <c r="M52" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N52" s="0" t="n">
+        <f aca="false">RANK($D52, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
@@ -2051,6 +2268,10 @@
       <c r="M53" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N53" s="0" t="n">
+        <f aca="false">RANK($D53, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
@@ -2080,6 +2301,10 @@
       <c r="M54" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N54" s="0" t="n">
+        <f aca="false">RANK($D54, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
@@ -2109,10 +2334,14 @@
       <c r="M55" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">RANK($D55, $D$2:$D$55, 0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2" t="n">
         <f aca="false">SUM(D2:D55) / COUNT(D2:D55)</f>
@@ -2157,7 +2386,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="n">
         <f aca="false">MEDIAN(D2:D55)</f>
@@ -2202,7 +2431,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="n">
         <f aca="false">_xlfn.STDEV.P(D2:D55)</f>
@@ -2247,7 +2476,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="15" t="e">
         <f aca="false">(D59 / D57) * 100</f>
@@ -2292,7 +2521,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="n">
         <f aca="false">MIN(D2:D55)</f>
@@ -2337,7 +2566,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="n">
         <f aca="false">MAX(D2:D55)</f>
@@ -2382,7 +2611,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" s="16" t="n">
         <f aca="false">COUNTIF(D2:D55, "&gt;=15")</f>
@@ -2415,7 +2644,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64" s="16" t="n">
         <f aca="false">COUNTIF(D2:D55, "&gt;=10")</f>
@@ -2448,7 +2677,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="n">
         <f aca="false">COUNTIF(D2:D55, "&lt;10")</f>
@@ -2481,7 +2710,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="n">
         <f aca="false">COUNTIF(D2:D55, "&lt;6")</f>
@@ -2509,172 +2738,230 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="19" t="n">
+      <c r="C67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <f aca="false">COUNTIF(D2:D55, "&lt;=0")</f>
+        <v>54</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <f aca="false">COUNTIF(E2:E55, "&lt;=0")</f>
+        <v>54</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <f aca="false">COUNTIF(F2:F55, "&lt;=0")</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <f aca="false">COUNTIF(H2:H55, "&lt;=0")</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <f aca="false">COUNTIF(J2:J55, "&lt;=0")</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <f aca="false">COUNTIF(L2:L55, "&lt;=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="19" t="n">
         <f aca="false">COUNT(D2:D55)</f>
         <v>54</v>
       </c>
-      <c r="E67" s="19" t="n">
+      <c r="E68" s="19" t="n">
         <f aca="false">COUNT(E2:E55)</f>
         <v>54</v>
       </c>
-      <c r="F67" s="19" t="n">
+      <c r="F68" s="19" t="n">
         <f aca="false">COUNT(F2:F55)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19" t="n">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19" t="n">
         <f aca="false">COUNT(H2:H55)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19" t="n">
+      <c r="I68" s="19"/>
+      <c r="J68" s="19" t="n">
         <f aca="false">COUNT(J2:J55)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19" t="n">
+      <c r="K68" s="19"/>
+      <c r="L68" s="19" t="n">
         <f aca="false">COUNT(L2:L55)</f>
         <v>0</v>
       </c>
-      <c r="M67" s="19"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(D63/D67 * 100,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(E63/E67 * 100,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(F63/F67 * 100,2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(H63/H67 * 100,2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(J63/J67 * 100,2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(L63/L67 * 100,2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="20"/>
+      <c r="M68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(D64/D67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(D63/D68 * 100,2)))</f>
         <v>0</v>
       </c>
       <c r="E69" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(E64/E67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(E63/E68 * 100,2)))</f>
         <v>0</v>
       </c>
       <c r="F69" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(F64/F67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(F63/F68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(H64/H67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(H63/H68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(J64/J67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(J63/J68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K69" s="20"/>
       <c r="L69" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(L64/L67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(L63/L68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="21" t="s">
-        <v>22</v>
+      <c r="C70" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="D70" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(D65/D67 * 100,2)))</f>
-        <v>100</v>
+        <f aca="false">(INT(ROUNDUP(D64/D68 * 100,2)))</f>
+        <v>0</v>
       </c>
       <c r="E70" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(E65/E67 * 100,2)))</f>
-        <v>100</v>
+        <f aca="false">(INT(ROUNDUP(E64/E68 * 100,2)))</f>
+        <v>0</v>
       </c>
       <c r="F70" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(F65/F67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(F64/F68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(H65/H67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(H64/H68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(J65/J67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(J64/J68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K70" s="20"/>
       <c r="L70" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(L65/L67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(L64/L68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(D66/D67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(D65/D68 * 100,2)))</f>
         <v>100</v>
       </c>
       <c r="E71" s="20" t="n">
-        <f aca="false">(INT(ROUNDUP(E66/E67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(E65/E68 * 100,2)))</f>
         <v>100</v>
       </c>
       <c r="F71" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(F66/F67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(F65/F68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(H66/H67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(H65/H68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(J66/J67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(J65/J68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K71" s="20"/>
       <c r="L71" s="20" t="e">
-        <f aca="false">(INT(ROUNDUP(L66/L67 * 100,2)))</f>
+        <f aca="false">(INT(ROUNDUP(L65/L68 * 100,2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M71" s="20"/>
     </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="20" t="n">
+        <f aca="false">(INT(ROUNDUP(D66/D68 * 100,2)))</f>
+        <v>100</v>
+      </c>
+      <c r="E72" s="20" t="n">
+        <f aca="false">(INT(ROUNDUP(E66/E68 * 100,2)))</f>
+        <v>100</v>
+      </c>
+      <c r="F72" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(F66/F68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(H66/H68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(J66/J68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(L66/L68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="20"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="20" t="n">
+        <f aca="false">(INT(ROUNDUP(D67/D68 * 100,2)))</f>
+        <v>100</v>
+      </c>
+      <c r="E73" s="20" t="n">
+        <f aca="false">(INT(ROUNDUP(E67/E68 * 100,2)))</f>
+        <v>100</v>
+      </c>
+      <c r="F73" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(F67/F68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(H67/H68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J73" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(J67/J68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L73" s="20" t="e">
+        <f aca="false">(INT(ROUNDUP(L67/L68 * 100,2)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:M62 D66:M1048576">
+  <conditionalFormatting sqref="D1:M62 D66:M1048576 N1">
     <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
